--- a/ratings.xlsx
+++ b/ratings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d20c557fb2e8d85/Bureaublad/Alexander badminton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{B95FA625-36C6-47E2-8DFD-3089AA584955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB990496-3DC3-4C10-8838-B8B3B31D2DBB}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{B95FA625-36C6-47E2-8DFD-3089AA584955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83014C27-765E-4F8F-AFFA-2BBFAFE0957A}"/>
   <bookViews>
-    <workbookView xWindow="30420" yWindow="4245" windowWidth="21600" windowHeight="11235" xr2:uid="{150A8A71-42C4-43B3-BB73-C3E0531373E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{150A8A71-42C4-43B3-BB73-C3E0531373E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>Alexander</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Eddy New</t>
+  </si>
+  <si>
+    <t>Vons</t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC18DCF6-A70D-4966-859E-CF62C7E79A25}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,6 +1191,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E37" xr:uid="{AC18DCF6-A70D-4966-859E-CF62C7E79A25}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E37">

--- a/ratings.xlsx
+++ b/ratings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d20c557fb2e8d85/Bureaublad/Alexander badminton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{B95FA625-36C6-47E2-8DFD-3089AA584955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83014C27-765E-4F8F-AFFA-2BBFAFE0957A}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{B95FA625-36C6-47E2-8DFD-3089AA584955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF7E7E71-5E81-4AD2-ADE6-56E1D6538E10}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{150A8A71-42C4-43B3-BB73-C3E0531373E1}"/>
   </bookViews>
@@ -167,7 +167,7 @@
     <t>Eddy New</t>
   </si>
   <si>
-    <t>Vons</t>
+    <t>Fons</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
